--- a/result/26_pred.xlsx
+++ b/result/26_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,170 +447,194 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83064.6779</v>
+        <v>82940.484</v>
       </c>
       <c r="B2" t="n">
-        <v>65047.7812</v>
+        <v>65052.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83039.6779</v>
+        <v>82949.5037</v>
       </c>
       <c r="B3" t="n">
-        <v>65032.7812</v>
+        <v>65053.0706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83064.6779</v>
+        <v>82948.77899999999</v>
       </c>
       <c r="B4" t="n">
-        <v>65027.7812</v>
+        <v>65035.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>83064.6779</v>
+        <v>82951.44190000001</v>
       </c>
       <c r="B5" t="n">
-        <v>65012.7812</v>
+        <v>65011.1148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83059.6779</v>
+        <v>82942.41310000001</v>
       </c>
       <c r="B6" t="n">
-        <v>65062.7812</v>
+        <v>65010.6998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>83014.6779</v>
+        <v>82941.2877</v>
       </c>
       <c r="B7" t="n">
-        <v>65032.7812</v>
+        <v>65035.1745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83049.6779</v>
+        <v>83061.22848257041</v>
       </c>
       <c r="B8" t="n">
-        <v>65047.7812</v>
+        <v>65038.23692783034</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>83039.6779</v>
+        <v>83062.06586452799</v>
       </c>
       <c r="B9" t="n">
-        <v>65012.7812</v>
+        <v>65023.26031968773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>83039.6779</v>
+        <v>83060.39110061282</v>
       </c>
       <c r="B10" t="n">
-        <v>65062.7812</v>
+        <v>65053.21353597294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83004.6779</v>
+        <v>83046.25187442781</v>
       </c>
       <c r="B11" t="n">
-        <v>65052.7812</v>
+        <v>65037.39954587275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>82999.6779</v>
+        <v>83047.08925638538</v>
       </c>
       <c r="B12" t="n">
-        <v>65022.7812</v>
+        <v>65022.42293773015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>82989.6779</v>
+        <v>83045.41449247021</v>
       </c>
       <c r="B13" t="n">
-        <v>65042.7812</v>
+        <v>65052.37615401535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>83024.6779</v>
+        <v>83031.2752662852</v>
       </c>
       <c r="B14" t="n">
-        <v>65052.7812</v>
+        <v>65036.56216391517</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>83024.6779</v>
+        <v>83032.11264824278</v>
       </c>
       <c r="B15" t="n">
-        <v>65017.7812</v>
+        <v>65021.58555577257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>82979.6779</v>
+        <v>83030.43788432761</v>
       </c>
       <c r="B16" t="n">
-        <v>65022.7812</v>
+        <v>65051.53877205777</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82979.6779</v>
+        <v>83016.29865814259</v>
       </c>
       <c r="B17" t="n">
-        <v>65007.7812</v>
+        <v>65035.72478195759</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>82959.6779</v>
+        <v>83017.13604010019</v>
       </c>
       <c r="B18" t="n">
-        <v>65027.7812</v>
+        <v>65020.74817381498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>82939.6779</v>
+        <v>83015.46127618501</v>
       </c>
       <c r="B19" t="n">
-        <v>65022.7812</v>
+        <v>65050.70139010018</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>82959.6779</v>
+        <v>83001.74074097878</v>
       </c>
       <c r="B20" t="n">
-        <v>65007.7812</v>
+        <v>65027.3990959287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>83004.6779</v>
+        <v>83000.90335902121</v>
       </c>
       <c r="B21" t="n">
-        <v>65007.7812</v>
+        <v>65042.3757040713</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82989.6779</v>
+        <v>82986.76413283618</v>
       </c>
       <c r="B22" t="n">
-        <v>65057.7812</v>
+        <v>65026.56171397111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>82985.9267508786</v>
+      </c>
+      <c r="B23" t="n">
+        <v>65041.53832211372</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>82971.78752469357</v>
+      </c>
+      <c r="B24" t="n">
+        <v>65025.72433201353</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>82970.95014273599</v>
+      </c>
+      <c r="B25" t="n">
+        <v>65040.70094015614</v>
       </c>
     </row>
   </sheetData>

--- a/result/26_pred.xlsx
+++ b/result/26_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,146 +495,130 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83061.22848257041</v>
+        <v>83049.24719605633</v>
       </c>
       <c r="B8" t="n">
-        <v>65038.23692783034</v>
+        <v>65037.56702226427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>83062.06586452799</v>
+        <v>83050.58700718846</v>
       </c>
       <c r="B9" t="n">
-        <v>65023.26031968773</v>
+        <v>65013.6044492361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>83060.39110061282</v>
+        <v>83047.90738492418</v>
       </c>
       <c r="B10" t="n">
-        <v>65053.21353597294</v>
+        <v>65061.52959529244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83046.25187442781</v>
+        <v>83025.28462302816</v>
       </c>
       <c r="B11" t="n">
-        <v>65037.39954587275</v>
+        <v>65036.22721113214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>83047.08925638538</v>
+        <v>83026.62443416029</v>
       </c>
       <c r="B12" t="n">
-        <v>65022.42293773015</v>
+        <v>65012.26463810397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>83045.41449247021</v>
+        <v>83023.94481189601</v>
       </c>
       <c r="B13" t="n">
-        <v>65052.37615401535</v>
+        <v>65060.18978416031</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>83031.2752662852</v>
+        <v>83013.97324208014</v>
       </c>
       <c r="B14" t="n">
-        <v>65036.56216391517</v>
+        <v>65023.57601905198</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>83032.11264824278</v>
+        <v>83012.63343094802</v>
       </c>
       <c r="B15" t="n">
-        <v>65021.58555577257</v>
+        <v>65047.53859208015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83030.43788432761</v>
+        <v>83001.32204999999</v>
       </c>
       <c r="B16" t="n">
-        <v>65051.53877205777</v>
+        <v>65034.8874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>83016.29865814259</v>
+        <v>83002.66186113213</v>
       </c>
       <c r="B17" t="n">
-        <v>65035.72478195759</v>
+        <v>65010.92482697184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>83017.13604010019</v>
+        <v>82999.98223886786</v>
       </c>
       <c r="B18" t="n">
-        <v>65020.74817381498</v>
+        <v>65058.84997302817</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>83015.46127618501</v>
+        <v>82990.01066905198</v>
       </c>
       <c r="B19" t="n">
-        <v>65050.70139010018</v>
+        <v>65022.23620791985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>83001.74074097878</v>
+        <v>82988.67085791985</v>
       </c>
       <c r="B20" t="n">
-        <v>65027.3990959287</v>
+        <v>65046.19878094802</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>83000.90335902121</v>
+        <v>82977.35947697182</v>
       </c>
       <c r="B21" t="n">
-        <v>65042.3757040713</v>
+        <v>65033.54758886786</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82986.76413283618</v>
+        <v>82978.69928810396</v>
       </c>
       <c r="B22" t="n">
-        <v>65026.56171397111</v>
+        <v>65009.58501583969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>82985.9267508786</v>
+        <v>82976.01966583969</v>
       </c>
       <c r="B23" t="n">
-        <v>65041.53832211372</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>82971.78752469357</v>
-      </c>
-      <c r="B24" t="n">
-        <v>65025.72433201353</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>82970.95014273599</v>
-      </c>
-      <c r="B25" t="n">
-        <v>65040.70094015614</v>
+        <v>65057.51016189603</v>
       </c>
     </row>
   </sheetData>
